--- a/Excel/16_abilityLevel.xlsx
+++ b/Excel/16_abilityLevel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hoon\EEA\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7E528E-B627-4D16-A2CF-9B5FA10A85BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28461EB3-919A-4E6E-A6EC-387E85AF5F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="2895" windowWidth="31680" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="3960" windowWidth="26175" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="157">
   <si>
     <t>No</t>
   </si>
@@ -539,6 +539,56 @@
   </si>
   <si>
     <t>글로브15</t>
+  </si>
+  <si>
+    <t>메테오1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>메테오2</t>
+  </si>
+  <si>
+    <t>메테오3</t>
+  </si>
+  <si>
+    <t>메테오4</t>
+  </si>
+  <si>
+    <t>메테오5</t>
+  </si>
+  <si>
+    <t>메테오6</t>
+  </si>
+  <si>
+    <t>메테오7</t>
+  </si>
+  <si>
+    <t>메테오8</t>
+  </si>
+  <si>
+    <t>메테오9</t>
+  </si>
+  <si>
+    <t>메테오10</t>
+  </si>
+  <si>
+    <t>메테오11</t>
+  </si>
+  <si>
+    <t>메테오12</t>
+  </si>
+  <si>
+    <t>메테오13</t>
+  </si>
+  <si>
+    <t>메테오14</t>
+  </si>
+  <si>
+    <t>메테오15</t>
+  </si>
+  <si>
+    <t>0.0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -922,15 +972,15 @@
   <dimension ref="A1:BQ991"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J69" sqref="J69"/>
+      <selection pane="bottomRight" activeCell="I116" sqref="I116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="28.140625" customWidth="1"/>
     <col min="3" max="4" width="22.140625" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
@@ -5241,7 +5291,7 @@
         <v>57</v>
       </c>
       <c r="H49" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -5329,7 +5379,7 @@
         <v>57</v>
       </c>
       <c r="H50" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -5417,7 +5467,7 @@
         <v>57</v>
       </c>
       <c r="H51" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -5505,7 +5555,7 @@
         <v>57</v>
       </c>
       <c r="H52" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -5593,7 +5643,7 @@
         <v>57</v>
       </c>
       <c r="H53" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -5681,7 +5731,7 @@
         <v>57</v>
       </c>
       <c r="H54" s="1">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -5769,7 +5819,7 @@
         <v>57</v>
       </c>
       <c r="H55" s="1">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -5857,7 +5907,7 @@
         <v>57</v>
       </c>
       <c r="H56" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -5945,7 +5995,7 @@
         <v>57</v>
       </c>
       <c r="H57" s="1">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -6033,7 +6083,7 @@
         <v>57</v>
       </c>
       <c r="H58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -6121,7 +6171,7 @@
         <v>57</v>
       </c>
       <c r="H59" s="1">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -6209,7 +6259,7 @@
         <v>57</v>
       </c>
       <c r="H60" s="1">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -6297,7 +6347,7 @@
         <v>57</v>
       </c>
       <c r="H61" s="1">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -6385,7 +6435,7 @@
         <v>57</v>
       </c>
       <c r="H62" s="1">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -6803,7 +6853,7 @@
     </row>
     <row r="67" spans="1:69" ht="16.5">
       <c r="A67" s="3">
-        <f t="shared" ref="A67:A107" si="1">ROW()-2</f>
+        <f t="shared" ref="A67:A122" si="1">ROW()-2</f>
         <v>65</v>
       </c>
       <c r="B67" s="8">
@@ -10409,67 +10459,1410 @@
       <c r="BP107" s="1"/>
       <c r="BQ107" s="9"/>
     </row>
-    <row r="108" spans="1:69" ht="12.75" customHeight="1">
-      <c r="B108" s="10"/>
-    </row>
-    <row r="109" spans="1:69" ht="12.75" customHeight="1">
-      <c r="B109" s="10"/>
-    </row>
-    <row r="110" spans="1:69" ht="12.75" customHeight="1">
-      <c r="B110" s="10"/>
-    </row>
-    <row r="111" spans="1:69" ht="12.75" customHeight="1">
-      <c r="B111" s="10"/>
-    </row>
-    <row r="112" spans="1:69" ht="12.75" customHeight="1">
-      <c r="B112" s="10"/>
-    </row>
-    <row r="113" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B113" s="10"/>
-    </row>
-    <row r="114" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B114" s="10"/>
-    </row>
-    <row r="115" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B115" s="10"/>
-    </row>
-    <row r="116" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B116" s="10"/>
-    </row>
-    <row r="117" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B117" s="10"/>
-    </row>
-    <row r="118" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B118" s="10"/>
-    </row>
-    <row r="119" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B119" s="10"/>
-    </row>
-    <row r="120" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B120" s="10"/>
-    </row>
-    <row r="121" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B121" s="10"/>
-    </row>
-    <row r="122" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B122" s="10"/>
-    </row>
-    <row r="123" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B123" s="10"/>
-    </row>
-    <row r="124" spans="2:2" ht="12.75" customHeight="1">
+    <row r="108" spans="1:69" ht="16.5">
+      <c r="A108" s="3">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="B108" s="8">
+        <v>16000106</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D108" s="14">
+        <v>1</v>
+      </c>
+      <c r="E108" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="F108" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G108" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H108" s="1">
+        <v>0</v>
+      </c>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="12"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
+      <c r="U108" s="1"/>
+      <c r="V108" s="1"/>
+      <c r="W108" s="1"/>
+      <c r="X108" s="1"/>
+      <c r="Y108" s="1"/>
+      <c r="Z108" s="1"/>
+      <c r="AA108" s="1"/>
+      <c r="AB108" s="1"/>
+      <c r="AC108" s="1"/>
+      <c r="AD108" s="1"/>
+      <c r="AE108" s="1"/>
+      <c r="AF108" s="1"/>
+      <c r="AG108" s="1"/>
+      <c r="AH108" s="1"/>
+      <c r="AI108" s="1"/>
+      <c r="AJ108" s="1"/>
+      <c r="AK108" s="1"/>
+      <c r="AL108" s="1"/>
+      <c r="AM108" s="1"/>
+      <c r="AN108" s="1"/>
+      <c r="AO108" s="1"/>
+      <c r="AP108" s="1"/>
+      <c r="AQ108" s="1"/>
+      <c r="AR108" s="1"/>
+      <c r="AS108" s="1"/>
+      <c r="AT108" s="1"/>
+      <c r="AU108" s="1"/>
+      <c r="AV108" s="1"/>
+      <c r="AW108" s="1"/>
+      <c r="AX108" s="1"/>
+      <c r="AY108" s="1"/>
+      <c r="AZ108" s="9"/>
+      <c r="BA108" s="9"/>
+      <c r="BB108" s="9"/>
+      <c r="BC108" s="9"/>
+      <c r="BD108" s="9"/>
+      <c r="BE108" s="9"/>
+      <c r="BF108" s="9"/>
+      <c r="BG108" s="9"/>
+      <c r="BH108" s="9"/>
+      <c r="BI108" s="9"/>
+      <c r="BJ108" s="9"/>
+      <c r="BK108" s="9"/>
+      <c r="BL108" s="9"/>
+      <c r="BM108" s="9"/>
+      <c r="BN108" s="9"/>
+      <c r="BO108" s="9"/>
+      <c r="BP108" s="1"/>
+      <c r="BQ108" s="9"/>
+    </row>
+    <row r="109" spans="1:69" ht="16.5">
+      <c r="A109" s="3">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="B109" s="8">
+        <v>16000107</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D109" s="14">
+        <v>2</v>
+      </c>
+      <c r="E109" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F109" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H109" s="1">
+        <v>0</v>
+      </c>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="12"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
+      <c r="U109" s="1"/>
+      <c r="V109" s="1"/>
+      <c r="W109" s="1"/>
+      <c r="X109" s="1"/>
+      <c r="Y109" s="1"/>
+      <c r="Z109" s="1"/>
+      <c r="AA109" s="1"/>
+      <c r="AB109" s="1"/>
+      <c r="AC109" s="1"/>
+      <c r="AD109" s="1"/>
+      <c r="AE109" s="1"/>
+      <c r="AF109" s="1"/>
+      <c r="AG109" s="1"/>
+      <c r="AH109" s="1"/>
+      <c r="AI109" s="1"/>
+      <c r="AJ109" s="1"/>
+      <c r="AK109" s="1"/>
+      <c r="AL109" s="1"/>
+      <c r="AM109" s="1"/>
+      <c r="AN109" s="1"/>
+      <c r="AO109" s="1"/>
+      <c r="AP109" s="1"/>
+      <c r="AQ109" s="1"/>
+      <c r="AR109" s="1"/>
+      <c r="AS109" s="1"/>
+      <c r="AT109" s="1"/>
+      <c r="AU109" s="1"/>
+      <c r="AV109" s="1"/>
+      <c r="AW109" s="1"/>
+      <c r="AX109" s="1"/>
+      <c r="AY109" s="1"/>
+      <c r="AZ109" s="9"/>
+      <c r="BA109" s="9"/>
+      <c r="BB109" s="9"/>
+      <c r="BC109" s="9"/>
+      <c r="BD109" s="9"/>
+      <c r="BE109" s="9"/>
+      <c r="BF109" s="9"/>
+      <c r="BG109" s="9"/>
+      <c r="BH109" s="9"/>
+      <c r="BI109" s="9"/>
+      <c r="BJ109" s="9"/>
+      <c r="BK109" s="9"/>
+      <c r="BL109" s="9"/>
+      <c r="BM109" s="9"/>
+      <c r="BN109" s="9"/>
+      <c r="BO109" s="9"/>
+      <c r="BP109" s="1"/>
+      <c r="BQ109" s="9"/>
+    </row>
+    <row r="110" spans="1:69" ht="16.5">
+      <c r="A110" s="3">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="B110" s="8">
+        <v>16000108</v>
+      </c>
+      <c r="C110" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D110" s="14">
+        <v>3</v>
+      </c>
+      <c r="E110" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F110" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G110" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0</v>
+      </c>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="12"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+      <c r="T110" s="1"/>
+      <c r="U110" s="1"/>
+      <c r="V110" s="1"/>
+      <c r="W110" s="1"/>
+      <c r="X110" s="1"/>
+      <c r="Y110" s="1"/>
+      <c r="Z110" s="1"/>
+      <c r="AA110" s="1"/>
+      <c r="AB110" s="1"/>
+      <c r="AC110" s="1"/>
+      <c r="AD110" s="1"/>
+      <c r="AE110" s="1"/>
+      <c r="AF110" s="1"/>
+      <c r="AG110" s="1"/>
+      <c r="AH110" s="1"/>
+      <c r="AI110" s="1"/>
+      <c r="AJ110" s="1"/>
+      <c r="AK110" s="1"/>
+      <c r="AL110" s="1"/>
+      <c r="AM110" s="1"/>
+      <c r="AN110" s="1"/>
+      <c r="AO110" s="1"/>
+      <c r="AP110" s="1"/>
+      <c r="AQ110" s="1"/>
+      <c r="AR110" s="1"/>
+      <c r="AS110" s="1"/>
+      <c r="AT110" s="1"/>
+      <c r="AU110" s="1"/>
+      <c r="AV110" s="1"/>
+      <c r="AW110" s="1"/>
+      <c r="AX110" s="1"/>
+      <c r="AY110" s="1"/>
+      <c r="AZ110" s="9"/>
+      <c r="BA110" s="9"/>
+      <c r="BB110" s="9"/>
+      <c r="BC110" s="9"/>
+      <c r="BD110" s="9"/>
+      <c r="BE110" s="9"/>
+      <c r="BF110" s="9"/>
+      <c r="BG110" s="9"/>
+      <c r="BH110" s="9"/>
+      <c r="BI110" s="9"/>
+      <c r="BJ110" s="9"/>
+      <c r="BK110" s="9"/>
+      <c r="BL110" s="9"/>
+      <c r="BM110" s="9"/>
+      <c r="BN110" s="9"/>
+      <c r="BO110" s="9"/>
+      <c r="BP110" s="1"/>
+      <c r="BQ110" s="9"/>
+    </row>
+    <row r="111" spans="1:69" ht="16.5">
+      <c r="A111" s="3">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="B111" s="8">
+        <v>16000109</v>
+      </c>
+      <c r="C111" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D111" s="14">
+        <v>4</v>
+      </c>
+      <c r="E111" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F111" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G111" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H111" s="1">
+        <v>0</v>
+      </c>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="12"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="1"/>
+      <c r="S111" s="1"/>
+      <c r="T111" s="1"/>
+      <c r="U111" s="1"/>
+      <c r="V111" s="1"/>
+      <c r="W111" s="1"/>
+      <c r="X111" s="1"/>
+      <c r="Y111" s="1"/>
+      <c r="Z111" s="1"/>
+      <c r="AA111" s="1"/>
+      <c r="AB111" s="1"/>
+      <c r="AC111" s="1"/>
+      <c r="AD111" s="1"/>
+      <c r="AE111" s="1"/>
+      <c r="AF111" s="1"/>
+      <c r="AG111" s="1"/>
+      <c r="AH111" s="1"/>
+      <c r="AI111" s="1"/>
+      <c r="AJ111" s="1"/>
+      <c r="AK111" s="1"/>
+      <c r="AL111" s="1"/>
+      <c r="AM111" s="1"/>
+      <c r="AN111" s="1"/>
+      <c r="AO111" s="1"/>
+      <c r="AP111" s="1"/>
+      <c r="AQ111" s="1"/>
+      <c r="AR111" s="1"/>
+      <c r="AS111" s="1"/>
+      <c r="AT111" s="1"/>
+      <c r="AU111" s="1"/>
+      <c r="AV111" s="1"/>
+      <c r="AW111" s="1"/>
+      <c r="AX111" s="1"/>
+      <c r="AY111" s="1"/>
+      <c r="AZ111" s="9"/>
+      <c r="BA111" s="9"/>
+      <c r="BB111" s="9"/>
+      <c r="BC111" s="9"/>
+      <c r="BD111" s="9"/>
+      <c r="BE111" s="9"/>
+      <c r="BF111" s="9"/>
+      <c r="BG111" s="9"/>
+      <c r="BH111" s="9"/>
+      <c r="BI111" s="9"/>
+      <c r="BJ111" s="9"/>
+      <c r="BK111" s="9"/>
+      <c r="BL111" s="9"/>
+      <c r="BM111" s="9"/>
+      <c r="BN111" s="9"/>
+      <c r="BO111" s="9"/>
+      <c r="BP111" s="1"/>
+      <c r="BQ111" s="9"/>
+    </row>
+    <row r="112" spans="1:69" ht="16.5">
+      <c r="A112" s="3">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="B112" s="8">
+        <v>16000110</v>
+      </c>
+      <c r="C112" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D112" s="14">
+        <v>5</v>
+      </c>
+      <c r="E112" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F112" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G112" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H112" s="1">
+        <v>0</v>
+      </c>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="12"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1"/>
+      <c r="S112" s="1"/>
+      <c r="T112" s="1"/>
+      <c r="U112" s="1"/>
+      <c r="V112" s="1"/>
+      <c r="W112" s="1"/>
+      <c r="X112" s="1"/>
+      <c r="Y112" s="1"/>
+      <c r="Z112" s="1"/>
+      <c r="AA112" s="1"/>
+      <c r="AB112" s="1"/>
+      <c r="AC112" s="1"/>
+      <c r="AD112" s="1"/>
+      <c r="AE112" s="1"/>
+      <c r="AF112" s="1"/>
+      <c r="AG112" s="1"/>
+      <c r="AH112" s="1"/>
+      <c r="AI112" s="1"/>
+      <c r="AJ112" s="1"/>
+      <c r="AK112" s="1"/>
+      <c r="AL112" s="1"/>
+      <c r="AM112" s="1"/>
+      <c r="AN112" s="1"/>
+      <c r="AO112" s="1"/>
+      <c r="AP112" s="1"/>
+      <c r="AQ112" s="1"/>
+      <c r="AR112" s="1"/>
+      <c r="AS112" s="1"/>
+      <c r="AT112" s="1"/>
+      <c r="AU112" s="1"/>
+      <c r="AV112" s="1"/>
+      <c r="AW112" s="1"/>
+      <c r="AX112" s="1"/>
+      <c r="AY112" s="1"/>
+      <c r="AZ112" s="9"/>
+      <c r="BA112" s="9"/>
+      <c r="BB112" s="9"/>
+      <c r="BC112" s="9"/>
+      <c r="BD112" s="9"/>
+      <c r="BE112" s="9"/>
+      <c r="BF112" s="9"/>
+      <c r="BG112" s="9"/>
+      <c r="BH112" s="9"/>
+      <c r="BI112" s="9"/>
+      <c r="BJ112" s="9"/>
+      <c r="BK112" s="9"/>
+      <c r="BL112" s="9"/>
+      <c r="BM112" s="9"/>
+      <c r="BN112" s="9"/>
+      <c r="BO112" s="9"/>
+      <c r="BP112" s="1"/>
+      <c r="BQ112" s="9"/>
+    </row>
+    <row r="113" spans="1:69" ht="16.5">
+      <c r="A113" s="3">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="B113" s="8">
+        <v>16000111</v>
+      </c>
+      <c r="C113" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D113" s="14">
+        <v>6</v>
+      </c>
+      <c r="E113" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F113" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G113" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H113" s="1">
+        <v>0</v>
+      </c>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="12"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
+      <c r="Q113" s="1"/>
+      <c r="R113" s="1"/>
+      <c r="S113" s="1"/>
+      <c r="T113" s="1"/>
+      <c r="U113" s="1"/>
+      <c r="V113" s="1"/>
+      <c r="W113" s="1"/>
+      <c r="X113" s="1"/>
+      <c r="Y113" s="1"/>
+      <c r="Z113" s="1"/>
+      <c r="AA113" s="1"/>
+      <c r="AB113" s="1"/>
+      <c r="AC113" s="1"/>
+      <c r="AD113" s="1"/>
+      <c r="AE113" s="1"/>
+      <c r="AF113" s="1"/>
+      <c r="AG113" s="1"/>
+      <c r="AH113" s="1"/>
+      <c r="AI113" s="1"/>
+      <c r="AJ113" s="1"/>
+      <c r="AK113" s="1"/>
+      <c r="AL113" s="1"/>
+      <c r="AM113" s="1"/>
+      <c r="AN113" s="1"/>
+      <c r="AO113" s="1"/>
+      <c r="AP113" s="1"/>
+      <c r="AQ113" s="1"/>
+      <c r="AR113" s="1"/>
+      <c r="AS113" s="1"/>
+      <c r="AT113" s="1"/>
+      <c r="AU113" s="1"/>
+      <c r="AV113" s="1"/>
+      <c r="AW113" s="1"/>
+      <c r="AX113" s="1"/>
+      <c r="AY113" s="1"/>
+      <c r="AZ113" s="9"/>
+      <c r="BA113" s="9"/>
+      <c r="BB113" s="9"/>
+      <c r="BC113" s="9"/>
+      <c r="BD113" s="9"/>
+      <c r="BE113" s="9"/>
+      <c r="BF113" s="9"/>
+      <c r="BG113" s="9"/>
+      <c r="BH113" s="9"/>
+      <c r="BI113" s="9"/>
+      <c r="BJ113" s="9"/>
+      <c r="BK113" s="9"/>
+      <c r="BL113" s="9"/>
+      <c r="BM113" s="9"/>
+      <c r="BN113" s="9"/>
+      <c r="BO113" s="9"/>
+      <c r="BP113" s="1"/>
+      <c r="BQ113" s="9"/>
+    </row>
+    <row r="114" spans="1:69" ht="16.5">
+      <c r="A114" s="3">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="B114" s="8">
+        <v>16000112</v>
+      </c>
+      <c r="C114" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D114" s="14">
+        <v>7</v>
+      </c>
+      <c r="E114" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F114" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G114" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H114" s="1">
+        <v>0</v>
+      </c>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="12"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="1"/>
+      <c r="Q114" s="1"/>
+      <c r="R114" s="1"/>
+      <c r="S114" s="1"/>
+      <c r="T114" s="1"/>
+      <c r="U114" s="1"/>
+      <c r="V114" s="1"/>
+      <c r="W114" s="1"/>
+      <c r="X114" s="1"/>
+      <c r="Y114" s="1"/>
+      <c r="Z114" s="1"/>
+      <c r="AA114" s="1"/>
+      <c r="AB114" s="1"/>
+      <c r="AC114" s="1"/>
+      <c r="AD114" s="1"/>
+      <c r="AE114" s="1"/>
+      <c r="AF114" s="1"/>
+      <c r="AG114" s="1"/>
+      <c r="AH114" s="1"/>
+      <c r="AI114" s="1"/>
+      <c r="AJ114" s="1"/>
+      <c r="AK114" s="1"/>
+      <c r="AL114" s="1"/>
+      <c r="AM114" s="1"/>
+      <c r="AN114" s="1"/>
+      <c r="AO114" s="1"/>
+      <c r="AP114" s="1"/>
+      <c r="AQ114" s="1"/>
+      <c r="AR114" s="1"/>
+      <c r="AS114" s="1"/>
+      <c r="AT114" s="1"/>
+      <c r="AU114" s="1"/>
+      <c r="AV114" s="1"/>
+      <c r="AW114" s="1"/>
+      <c r="AX114" s="1"/>
+      <c r="AY114" s="1"/>
+      <c r="AZ114" s="9"/>
+      <c r="BA114" s="9"/>
+      <c r="BB114" s="9"/>
+      <c r="BC114" s="9"/>
+      <c r="BD114" s="9"/>
+      <c r="BE114" s="9"/>
+      <c r="BF114" s="9"/>
+      <c r="BG114" s="9"/>
+      <c r="BH114" s="9"/>
+      <c r="BI114" s="9"/>
+      <c r="BJ114" s="9"/>
+      <c r="BK114" s="9"/>
+      <c r="BL114" s="9"/>
+      <c r="BM114" s="9"/>
+      <c r="BN114" s="9"/>
+      <c r="BO114" s="9"/>
+      <c r="BP114" s="1"/>
+      <c r="BQ114" s="9"/>
+    </row>
+    <row r="115" spans="1:69" ht="16.5">
+      <c r="A115" s="3">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="B115" s="8">
+        <v>16000113</v>
+      </c>
+      <c r="C115" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D115" s="14">
+        <v>8</v>
+      </c>
+      <c r="E115" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F115" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G115" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H115" s="1">
+        <v>0</v>
+      </c>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="12"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1"/>
+      <c r="Q115" s="1"/>
+      <c r="R115" s="1"/>
+      <c r="S115" s="1"/>
+      <c r="T115" s="1"/>
+      <c r="U115" s="1"/>
+      <c r="V115" s="1"/>
+      <c r="W115" s="1"/>
+      <c r="X115" s="1"/>
+      <c r="Y115" s="1"/>
+      <c r="Z115" s="1"/>
+      <c r="AA115" s="1"/>
+      <c r="AB115" s="1"/>
+      <c r="AC115" s="1"/>
+      <c r="AD115" s="1"/>
+      <c r="AE115" s="1"/>
+      <c r="AF115" s="1"/>
+      <c r="AG115" s="1"/>
+      <c r="AH115" s="1"/>
+      <c r="AI115" s="1"/>
+      <c r="AJ115" s="1"/>
+      <c r="AK115" s="1"/>
+      <c r="AL115" s="1"/>
+      <c r="AM115" s="1"/>
+      <c r="AN115" s="1"/>
+      <c r="AO115" s="1"/>
+      <c r="AP115" s="1"/>
+      <c r="AQ115" s="1"/>
+      <c r="AR115" s="1"/>
+      <c r="AS115" s="1"/>
+      <c r="AT115" s="1"/>
+      <c r="AU115" s="1"/>
+      <c r="AV115" s="1"/>
+      <c r="AW115" s="1"/>
+      <c r="AX115" s="1"/>
+      <c r="AY115" s="1"/>
+      <c r="AZ115" s="9"/>
+      <c r="BA115" s="9"/>
+      <c r="BB115" s="9"/>
+      <c r="BC115" s="9"/>
+      <c r="BD115" s="9"/>
+      <c r="BE115" s="9"/>
+      <c r="BF115" s="9"/>
+      <c r="BG115" s="9"/>
+      <c r="BH115" s="9"/>
+      <c r="BI115" s="9"/>
+      <c r="BJ115" s="9"/>
+      <c r="BK115" s="9"/>
+      <c r="BL115" s="9"/>
+      <c r="BM115" s="9"/>
+      <c r="BN115" s="9"/>
+      <c r="BO115" s="9"/>
+      <c r="BP115" s="1"/>
+      <c r="BQ115" s="9"/>
+    </row>
+    <row r="116" spans="1:69" ht="16.5">
+      <c r="A116" s="3">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="B116" s="8">
+        <v>16000114</v>
+      </c>
+      <c r="C116" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D116" s="14">
+        <v>9</v>
+      </c>
+      <c r="E116" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F116" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G116" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H116" s="1">
+        <v>0</v>
+      </c>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="12"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="1"/>
+      <c r="Q116" s="1"/>
+      <c r="R116" s="1"/>
+      <c r="S116" s="1"/>
+      <c r="T116" s="1"/>
+      <c r="U116" s="1"/>
+      <c r="V116" s="1"/>
+      <c r="W116" s="1"/>
+      <c r="X116" s="1"/>
+      <c r="Y116" s="1"/>
+      <c r="Z116" s="1"/>
+      <c r="AA116" s="1"/>
+      <c r="AB116" s="1"/>
+      <c r="AC116" s="1"/>
+      <c r="AD116" s="1"/>
+      <c r="AE116" s="1"/>
+      <c r="AF116" s="1"/>
+      <c r="AG116" s="1"/>
+      <c r="AH116" s="1"/>
+      <c r="AI116" s="1"/>
+      <c r="AJ116" s="1"/>
+      <c r="AK116" s="1"/>
+      <c r="AL116" s="1"/>
+      <c r="AM116" s="1"/>
+      <c r="AN116" s="1"/>
+      <c r="AO116" s="1"/>
+      <c r="AP116" s="1"/>
+      <c r="AQ116" s="1"/>
+      <c r="AR116" s="1"/>
+      <c r="AS116" s="1"/>
+      <c r="AT116" s="1"/>
+      <c r="AU116" s="1"/>
+      <c r="AV116" s="1"/>
+      <c r="AW116" s="1"/>
+      <c r="AX116" s="1"/>
+      <c r="AY116" s="1"/>
+      <c r="AZ116" s="9"/>
+      <c r="BA116" s="9"/>
+      <c r="BB116" s="9"/>
+      <c r="BC116" s="9"/>
+      <c r="BD116" s="9"/>
+      <c r="BE116" s="9"/>
+      <c r="BF116" s="9"/>
+      <c r="BG116" s="9"/>
+      <c r="BH116" s="9"/>
+      <c r="BI116" s="9"/>
+      <c r="BJ116" s="9"/>
+      <c r="BK116" s="9"/>
+      <c r="BL116" s="9"/>
+      <c r="BM116" s="9"/>
+      <c r="BN116" s="9"/>
+      <c r="BO116" s="9"/>
+      <c r="BP116" s="1"/>
+      <c r="BQ116" s="9"/>
+    </row>
+    <row r="117" spans="1:69" ht="16.5">
+      <c r="A117" s="3">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="B117" s="8">
+        <v>16000115</v>
+      </c>
+      <c r="C117" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D117" s="14">
+        <v>10</v>
+      </c>
+      <c r="E117" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F117" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G117" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H117" s="1">
+        <v>0</v>
+      </c>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="12"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="1"/>
+      <c r="Q117" s="1"/>
+      <c r="R117" s="1"/>
+      <c r="S117" s="1"/>
+      <c r="T117" s="1"/>
+      <c r="U117" s="1"/>
+      <c r="V117" s="1"/>
+      <c r="W117" s="1"/>
+      <c r="X117" s="1"/>
+      <c r="Y117" s="1"/>
+      <c r="Z117" s="1"/>
+      <c r="AA117" s="1"/>
+      <c r="AB117" s="1"/>
+      <c r="AC117" s="1"/>
+      <c r="AD117" s="1"/>
+      <c r="AE117" s="1"/>
+      <c r="AF117" s="1"/>
+      <c r="AG117" s="1"/>
+      <c r="AH117" s="1"/>
+      <c r="AI117" s="1"/>
+      <c r="AJ117" s="1"/>
+      <c r="AK117" s="1"/>
+      <c r="AL117" s="1"/>
+      <c r="AM117" s="1"/>
+      <c r="AN117" s="1"/>
+      <c r="AO117" s="1"/>
+      <c r="AP117" s="1"/>
+      <c r="AQ117" s="1"/>
+      <c r="AR117" s="1"/>
+      <c r="AS117" s="1"/>
+      <c r="AT117" s="1"/>
+      <c r="AU117" s="1"/>
+      <c r="AV117" s="1"/>
+      <c r="AW117" s="1"/>
+      <c r="AX117" s="1"/>
+      <c r="AY117" s="1"/>
+      <c r="AZ117" s="9"/>
+      <c r="BA117" s="9"/>
+      <c r="BB117" s="9"/>
+      <c r="BC117" s="9"/>
+      <c r="BD117" s="9"/>
+      <c r="BE117" s="9"/>
+      <c r="BF117" s="9"/>
+      <c r="BG117" s="9"/>
+      <c r="BH117" s="9"/>
+      <c r="BI117" s="9"/>
+      <c r="BJ117" s="9"/>
+      <c r="BK117" s="9"/>
+      <c r="BL117" s="9"/>
+      <c r="BM117" s="9"/>
+      <c r="BN117" s="9"/>
+      <c r="BO117" s="9"/>
+      <c r="BP117" s="1"/>
+      <c r="BQ117" s="9"/>
+    </row>
+    <row r="118" spans="1:69" ht="16.5">
+      <c r="A118" s="3">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="B118" s="8">
+        <v>16000116</v>
+      </c>
+      <c r="C118" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D118" s="14">
+        <v>11</v>
+      </c>
+      <c r="E118" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F118" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G118" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H118" s="1">
+        <v>0</v>
+      </c>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="12"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="1"/>
+      <c r="S118" s="1"/>
+      <c r="T118" s="1"/>
+      <c r="U118" s="1"/>
+      <c r="V118" s="1"/>
+      <c r="W118" s="1"/>
+      <c r="X118" s="1"/>
+      <c r="Y118" s="1"/>
+      <c r="Z118" s="1"/>
+      <c r="AA118" s="1"/>
+      <c r="AB118" s="1"/>
+      <c r="AC118" s="1"/>
+      <c r="AD118" s="1"/>
+      <c r="AE118" s="1"/>
+      <c r="AF118" s="1"/>
+      <c r="AG118" s="1"/>
+      <c r="AH118" s="1"/>
+      <c r="AI118" s="1"/>
+      <c r="AJ118" s="1"/>
+      <c r="AK118" s="1"/>
+      <c r="AL118" s="1"/>
+      <c r="AM118" s="1"/>
+      <c r="AN118" s="1"/>
+      <c r="AO118" s="1"/>
+      <c r="AP118" s="1"/>
+      <c r="AQ118" s="1"/>
+      <c r="AR118" s="1"/>
+      <c r="AS118" s="1"/>
+      <c r="AT118" s="1"/>
+      <c r="AU118" s="1"/>
+      <c r="AV118" s="1"/>
+      <c r="AW118" s="1"/>
+      <c r="AX118" s="1"/>
+      <c r="AY118" s="1"/>
+      <c r="AZ118" s="9"/>
+      <c r="BA118" s="9"/>
+      <c r="BB118" s="9"/>
+      <c r="BC118" s="9"/>
+      <c r="BD118" s="9"/>
+      <c r="BE118" s="9"/>
+      <c r="BF118" s="9"/>
+      <c r="BG118" s="9"/>
+      <c r="BH118" s="9"/>
+      <c r="BI118" s="9"/>
+      <c r="BJ118" s="9"/>
+      <c r="BK118" s="9"/>
+      <c r="BL118" s="9"/>
+      <c r="BM118" s="9"/>
+      <c r="BN118" s="9"/>
+      <c r="BO118" s="9"/>
+      <c r="BP118" s="1"/>
+      <c r="BQ118" s="9"/>
+    </row>
+    <row r="119" spans="1:69" ht="16.5">
+      <c r="A119" s="3">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="B119" s="8">
+        <v>16000117</v>
+      </c>
+      <c r="C119" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D119" s="14">
+        <v>12</v>
+      </c>
+      <c r="E119" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F119" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G119" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H119" s="1">
+        <v>0</v>
+      </c>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="12"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="1"/>
+      <c r="Q119" s="1"/>
+      <c r="R119" s="1"/>
+      <c r="S119" s="1"/>
+      <c r="T119" s="1"/>
+      <c r="U119" s="1"/>
+      <c r="V119" s="1"/>
+      <c r="W119" s="1"/>
+      <c r="X119" s="1"/>
+      <c r="Y119" s="1"/>
+      <c r="Z119" s="1"/>
+      <c r="AA119" s="1"/>
+      <c r="AB119" s="1"/>
+      <c r="AC119" s="1"/>
+      <c r="AD119" s="1"/>
+      <c r="AE119" s="1"/>
+      <c r="AF119" s="1"/>
+      <c r="AG119" s="1"/>
+      <c r="AH119" s="1"/>
+      <c r="AI119" s="1"/>
+      <c r="AJ119" s="1"/>
+      <c r="AK119" s="1"/>
+      <c r="AL119" s="1"/>
+      <c r="AM119" s="1"/>
+      <c r="AN119" s="1"/>
+      <c r="AO119" s="1"/>
+      <c r="AP119" s="1"/>
+      <c r="AQ119" s="1"/>
+      <c r="AR119" s="1"/>
+      <c r="AS119" s="1"/>
+      <c r="AT119" s="1"/>
+      <c r="AU119" s="1"/>
+      <c r="AV119" s="1"/>
+      <c r="AW119" s="1"/>
+      <c r="AX119" s="1"/>
+      <c r="AY119" s="1"/>
+      <c r="AZ119" s="9"/>
+      <c r="BA119" s="9"/>
+      <c r="BB119" s="9"/>
+      <c r="BC119" s="9"/>
+      <c r="BD119" s="9"/>
+      <c r="BE119" s="9"/>
+      <c r="BF119" s="9"/>
+      <c r="BG119" s="9"/>
+      <c r="BH119" s="9"/>
+      <c r="BI119" s="9"/>
+      <c r="BJ119" s="9"/>
+      <c r="BK119" s="9"/>
+      <c r="BL119" s="9"/>
+      <c r="BM119" s="9"/>
+      <c r="BN119" s="9"/>
+      <c r="BO119" s="9"/>
+      <c r="BP119" s="1"/>
+      <c r="BQ119" s="9"/>
+    </row>
+    <row r="120" spans="1:69" ht="16.5">
+      <c r="A120" s="3">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="B120" s="8">
+        <v>16000118</v>
+      </c>
+      <c r="C120" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D120" s="14">
+        <v>13</v>
+      </c>
+      <c r="E120" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F120" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G120" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H120" s="1">
+        <v>0</v>
+      </c>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="12"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="Q120" s="1"/>
+      <c r="R120" s="1"/>
+      <c r="S120" s="1"/>
+      <c r="T120" s="1"/>
+      <c r="U120" s="1"/>
+      <c r="V120" s="1"/>
+      <c r="W120" s="1"/>
+      <c r="X120" s="1"/>
+      <c r="Y120" s="1"/>
+      <c r="Z120" s="1"/>
+      <c r="AA120" s="1"/>
+      <c r="AB120" s="1"/>
+      <c r="AC120" s="1"/>
+      <c r="AD120" s="1"/>
+      <c r="AE120" s="1"/>
+      <c r="AF120" s="1"/>
+      <c r="AG120" s="1"/>
+      <c r="AH120" s="1"/>
+      <c r="AI120" s="1"/>
+      <c r="AJ120" s="1"/>
+      <c r="AK120" s="1"/>
+      <c r="AL120" s="1"/>
+      <c r="AM120" s="1"/>
+      <c r="AN120" s="1"/>
+      <c r="AO120" s="1"/>
+      <c r="AP120" s="1"/>
+      <c r="AQ120" s="1"/>
+      <c r="AR120" s="1"/>
+      <c r="AS120" s="1"/>
+      <c r="AT120" s="1"/>
+      <c r="AU120" s="1"/>
+      <c r="AV120" s="1"/>
+      <c r="AW120" s="1"/>
+      <c r="AX120" s="1"/>
+      <c r="AY120" s="1"/>
+      <c r="AZ120" s="9"/>
+      <c r="BA120" s="9"/>
+      <c r="BB120" s="9"/>
+      <c r="BC120" s="9"/>
+      <c r="BD120" s="9"/>
+      <c r="BE120" s="9"/>
+      <c r="BF120" s="9"/>
+      <c r="BG120" s="9"/>
+      <c r="BH120" s="9"/>
+      <c r="BI120" s="9"/>
+      <c r="BJ120" s="9"/>
+      <c r="BK120" s="9"/>
+      <c r="BL120" s="9"/>
+      <c r="BM120" s="9"/>
+      <c r="BN120" s="9"/>
+      <c r="BO120" s="9"/>
+      <c r="BP120" s="1"/>
+      <c r="BQ120" s="9"/>
+    </row>
+    <row r="121" spans="1:69" ht="16.5">
+      <c r="A121" s="3">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="B121" s="8">
+        <v>16000119</v>
+      </c>
+      <c r="C121" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D121" s="14">
+        <v>14</v>
+      </c>
+      <c r="E121" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F121" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G121" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H121" s="1">
+        <v>0</v>
+      </c>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="12"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="1"/>
+      <c r="Q121" s="1"/>
+      <c r="R121" s="1"/>
+      <c r="S121" s="1"/>
+      <c r="T121" s="1"/>
+      <c r="U121" s="1"/>
+      <c r="V121" s="1"/>
+      <c r="W121" s="1"/>
+      <c r="X121" s="1"/>
+      <c r="Y121" s="1"/>
+      <c r="Z121" s="1"/>
+      <c r="AA121" s="1"/>
+      <c r="AB121" s="1"/>
+      <c r="AC121" s="1"/>
+      <c r="AD121" s="1"/>
+      <c r="AE121" s="1"/>
+      <c r="AF121" s="1"/>
+      <c r="AG121" s="1"/>
+      <c r="AH121" s="1"/>
+      <c r="AI121" s="1"/>
+      <c r="AJ121" s="1"/>
+      <c r="AK121" s="1"/>
+      <c r="AL121" s="1"/>
+      <c r="AM121" s="1"/>
+      <c r="AN121" s="1"/>
+      <c r="AO121" s="1"/>
+      <c r="AP121" s="1"/>
+      <c r="AQ121" s="1"/>
+      <c r="AR121" s="1"/>
+      <c r="AS121" s="1"/>
+      <c r="AT121" s="1"/>
+      <c r="AU121" s="1"/>
+      <c r="AV121" s="1"/>
+      <c r="AW121" s="1"/>
+      <c r="AX121" s="1"/>
+      <c r="AY121" s="1"/>
+      <c r="AZ121" s="9"/>
+      <c r="BA121" s="9"/>
+      <c r="BB121" s="9"/>
+      <c r="BC121" s="9"/>
+      <c r="BD121" s="9"/>
+      <c r="BE121" s="9"/>
+      <c r="BF121" s="9"/>
+      <c r="BG121" s="9"/>
+      <c r="BH121" s="9"/>
+      <c r="BI121" s="9"/>
+      <c r="BJ121" s="9"/>
+      <c r="BK121" s="9"/>
+      <c r="BL121" s="9"/>
+      <c r="BM121" s="9"/>
+      <c r="BN121" s="9"/>
+      <c r="BO121" s="9"/>
+      <c r="BP121" s="1"/>
+      <c r="BQ121" s="9"/>
+    </row>
+    <row r="122" spans="1:69" ht="16.5">
+      <c r="A122" s="3">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="B122" s="8">
+        <v>16000120</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D122" s="14">
+        <v>15</v>
+      </c>
+      <c r="E122" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F122" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G122" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H122" s="1">
+        <v>0</v>
+      </c>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="12"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+      <c r="O122" s="1"/>
+      <c r="P122" s="1"/>
+      <c r="Q122" s="1"/>
+      <c r="R122" s="1"/>
+      <c r="S122" s="1"/>
+      <c r="T122" s="1"/>
+      <c r="U122" s="1"/>
+      <c r="V122" s="1"/>
+      <c r="W122" s="1"/>
+      <c r="X122" s="1"/>
+      <c r="Y122" s="1"/>
+      <c r="Z122" s="1"/>
+      <c r="AA122" s="1"/>
+      <c r="AB122" s="1"/>
+      <c r="AC122" s="1"/>
+      <c r="AD122" s="1"/>
+      <c r="AE122" s="1"/>
+      <c r="AF122" s="1"/>
+      <c r="AG122" s="1"/>
+      <c r="AH122" s="1"/>
+      <c r="AI122" s="1"/>
+      <c r="AJ122" s="1"/>
+      <c r="AK122" s="1"/>
+      <c r="AL122" s="1"/>
+      <c r="AM122" s="1"/>
+      <c r="AN122" s="1"/>
+      <c r="AO122" s="1"/>
+      <c r="AP122" s="1"/>
+      <c r="AQ122" s="1"/>
+      <c r="AR122" s="1"/>
+      <c r="AS122" s="1"/>
+      <c r="AT122" s="1"/>
+      <c r="AU122" s="1"/>
+      <c r="AV122" s="1"/>
+      <c r="AW122" s="1"/>
+      <c r="AX122" s="1"/>
+      <c r="AY122" s="1"/>
+      <c r="AZ122" s="9"/>
+      <c r="BA122" s="9"/>
+      <c r="BB122" s="9"/>
+      <c r="BC122" s="9"/>
+      <c r="BD122" s="9"/>
+      <c r="BE122" s="9"/>
+      <c r="BF122" s="9"/>
+      <c r="BG122" s="9"/>
+      <c r="BH122" s="9"/>
+      <c r="BI122" s="9"/>
+      <c r="BJ122" s="9"/>
+      <c r="BK122" s="9"/>
+      <c r="BL122" s="9"/>
+      <c r="BM122" s="9"/>
+      <c r="BN122" s="9"/>
+      <c r="BO122" s="9"/>
+      <c r="BP122" s="1"/>
+      <c r="BQ122" s="9"/>
+    </row>
+    <row r="123" spans="1:69" ht="16.5">
+      <c r="A123" s="3"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="15"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="12"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+      <c r="O123" s="1"/>
+      <c r="P123" s="1"/>
+      <c r="Q123" s="1"/>
+      <c r="R123" s="1"/>
+      <c r="S123" s="1"/>
+      <c r="T123" s="1"/>
+      <c r="U123" s="1"/>
+      <c r="V123" s="1"/>
+      <c r="W123" s="1"/>
+      <c r="X123" s="1"/>
+      <c r="Y123" s="1"/>
+      <c r="Z123" s="1"/>
+      <c r="AA123" s="1"/>
+      <c r="AB123" s="1"/>
+      <c r="AC123" s="1"/>
+      <c r="AD123" s="1"/>
+      <c r="AE123" s="1"/>
+      <c r="AF123" s="1"/>
+      <c r="AG123" s="1"/>
+      <c r="AH123" s="1"/>
+      <c r="AI123" s="1"/>
+      <c r="AJ123" s="1"/>
+      <c r="AK123" s="1"/>
+      <c r="AL123" s="1"/>
+      <c r="AM123" s="1"/>
+      <c r="AN123" s="1"/>
+      <c r="AO123" s="1"/>
+      <c r="AP123" s="1"/>
+      <c r="AQ123" s="1"/>
+      <c r="AR123" s="1"/>
+      <c r="AS123" s="1"/>
+      <c r="AT123" s="1"/>
+      <c r="AU123" s="1"/>
+      <c r="AV123" s="1"/>
+      <c r="AW123" s="1"/>
+      <c r="AX123" s="1"/>
+      <c r="AY123" s="1"/>
+      <c r="AZ123" s="9"/>
+      <c r="BA123" s="9"/>
+      <c r="BB123" s="9"/>
+      <c r="BC123" s="9"/>
+      <c r="BD123" s="9"/>
+      <c r="BE123" s="9"/>
+      <c r="BF123" s="9"/>
+      <c r="BG123" s="9"/>
+      <c r="BH123" s="9"/>
+      <c r="BI123" s="9"/>
+      <c r="BJ123" s="9"/>
+      <c r="BK123" s="9"/>
+      <c r="BL123" s="9"/>
+      <c r="BM123" s="9"/>
+      <c r="BN123" s="9"/>
+      <c r="BO123" s="9"/>
+      <c r="BP123" s="1"/>
+      <c r="BQ123" s="9"/>
+    </row>
+    <row r="124" spans="1:69" ht="12.75" customHeight="1">
       <c r="B124" s="10"/>
     </row>
-    <row r="125" spans="2:2" ht="12.75" customHeight="1">
+    <row r="125" spans="1:69" ht="12.75" customHeight="1">
       <c r="B125" s="10"/>
     </row>
-    <row r="126" spans="2:2" ht="12.75" customHeight="1">
+    <row r="126" spans="1:69" ht="12.75" customHeight="1">
       <c r="B126" s="10"/>
     </row>
-    <row r="127" spans="2:2" ht="12.75" customHeight="1">
+    <row r="127" spans="1:69" ht="12.75" customHeight="1">
       <c r="B127" s="10"/>
     </row>
-    <row r="128" spans="2:2" ht="12.75" customHeight="1">
+    <row r="128" spans="1:69" ht="12.75" customHeight="1">
       <c r="B128" s="10"/>
     </row>
     <row r="129" spans="2:2" ht="12.75" customHeight="1">

--- a/Excel/16_abilityLevel.xlsx
+++ b/Excel/16_abilityLevel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hoon\EEA\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28461EB3-919A-4E6E-A6EC-387E85AF5F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E9EDDE-434B-463F-85A1-CE86855A0DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="3960" windowWidth="26175" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6735" yWindow="3165" windowWidth="26175" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="173">
   <si>
     <t>No</t>
   </si>
@@ -589,6 +589,55 @@
   <si>
     <t>0.0</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이저1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이저2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>레이저3</t>
+  </si>
+  <si>
+    <t>레이저4</t>
+  </si>
+  <si>
+    <t>레이저5</t>
+  </si>
+  <si>
+    <t>레이저6</t>
+  </si>
+  <si>
+    <t>레이저7</t>
+  </si>
+  <si>
+    <t>레이저8</t>
+  </si>
+  <si>
+    <t>레이저9</t>
+  </si>
+  <si>
+    <t>레이저10</t>
+  </si>
+  <si>
+    <t>레이저11</t>
+  </si>
+  <si>
+    <t>레이저12</t>
+  </si>
+  <si>
+    <t>레이저13</t>
+  </si>
+  <si>
+    <t>레이저14</t>
+  </si>
+  <si>
+    <t>레이저15</t>
   </si>
 </sst>
 </file>
@@ -972,10 +1021,10 @@
   <dimension ref="A1:BQ991"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D102" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I116" sqref="I116"/>
+      <selection pane="bottomRight" activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -6853,7 +6902,7 @@
     </row>
     <row r="67" spans="1:69" ht="16.5">
       <c r="A67" s="3">
-        <f t="shared" ref="A67:A122" si="1">ROW()-2</f>
+        <f t="shared" ref="A67:A130" si="1">ROW()-2</f>
         <v>65</v>
       </c>
       <c r="B67" s="8">
@@ -11780,14 +11829,31 @@
       <c r="BQ122" s="9"/>
     </row>
     <row r="123" spans="1:69" ht="16.5">
-      <c r="A123" s="3"/>
-      <c r="B123" s="8"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="15"/>
-      <c r="F123" s="15"/>
-      <c r="G123" s="15"/>
-      <c r="H123" s="1"/>
+      <c r="A123" s="3">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="B123" s="8">
+        <v>16000121</v>
+      </c>
+      <c r="C123" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D123" s="14">
+        <v>1</v>
+      </c>
+      <c r="E123" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="F123" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H123" s="1">
+        <v>0</v>
+      </c>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
       <c r="K123" s="12"/>
@@ -11850,67 +11916,1393 @@
       <c r="BP123" s="1"/>
       <c r="BQ123" s="9"/>
     </row>
-    <row r="124" spans="1:69" ht="12.75" customHeight="1">
-      <c r="B124" s="10"/>
-    </row>
-    <row r="125" spans="1:69" ht="12.75" customHeight="1">
-      <c r="B125" s="10"/>
-    </row>
-    <row r="126" spans="1:69" ht="12.75" customHeight="1">
-      <c r="B126" s="10"/>
-    </row>
-    <row r="127" spans="1:69" ht="12.75" customHeight="1">
-      <c r="B127" s="10"/>
-    </row>
-    <row r="128" spans="1:69" ht="12.75" customHeight="1">
-      <c r="B128" s="10"/>
-    </row>
-    <row r="129" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B129" s="10"/>
-    </row>
-    <row r="130" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B130" s="10"/>
-    </row>
-    <row r="131" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B131" s="10"/>
-    </row>
-    <row r="132" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B132" s="10"/>
-    </row>
-    <row r="133" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B133" s="10"/>
-    </row>
-    <row r="134" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B134" s="10"/>
-    </row>
-    <row r="135" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B135" s="10"/>
-    </row>
-    <row r="136" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B136" s="10"/>
-    </row>
-    <row r="137" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B137" s="10"/>
-    </row>
-    <row r="138" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B138" s="10"/>
-    </row>
-    <row r="139" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B139" s="10"/>
-    </row>
-    <row r="140" spans="2:2" ht="12.75" customHeight="1">
+    <row r="124" spans="1:69" ht="16.5">
+      <c r="A124" s="3">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="B124" s="8">
+        <v>16000122</v>
+      </c>
+      <c r="C124" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D124" s="14">
+        <v>2</v>
+      </c>
+      <c r="E124" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="F124" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G124" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H124" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="12"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+      <c r="O124" s="1"/>
+      <c r="P124" s="1"/>
+      <c r="Q124" s="1"/>
+      <c r="R124" s="1"/>
+      <c r="S124" s="1"/>
+      <c r="T124" s="1"/>
+      <c r="U124" s="1"/>
+      <c r="V124" s="1"/>
+      <c r="W124" s="1"/>
+      <c r="X124" s="1"/>
+      <c r="Y124" s="1"/>
+      <c r="Z124" s="1"/>
+      <c r="AA124" s="1"/>
+      <c r="AB124" s="1"/>
+      <c r="AC124" s="1"/>
+      <c r="AD124" s="1"/>
+      <c r="AE124" s="1"/>
+      <c r="AF124" s="1"/>
+      <c r="AG124" s="1"/>
+      <c r="AH124" s="1"/>
+      <c r="AI124" s="1"/>
+      <c r="AJ124" s="1"/>
+      <c r="AK124" s="1"/>
+      <c r="AL124" s="1"/>
+      <c r="AM124" s="1"/>
+      <c r="AN124" s="1"/>
+      <c r="AO124" s="1"/>
+      <c r="AP124" s="1"/>
+      <c r="AQ124" s="1"/>
+      <c r="AR124" s="1"/>
+      <c r="AS124" s="1"/>
+      <c r="AT124" s="1"/>
+      <c r="AU124" s="1"/>
+      <c r="AV124" s="1"/>
+      <c r="AW124" s="1"/>
+      <c r="AX124" s="1"/>
+      <c r="AY124" s="1"/>
+      <c r="AZ124" s="9"/>
+      <c r="BA124" s="9"/>
+      <c r="BB124" s="9"/>
+      <c r="BC124" s="9"/>
+      <c r="BD124" s="9"/>
+      <c r="BE124" s="9"/>
+      <c r="BF124" s="9"/>
+      <c r="BG124" s="9"/>
+      <c r="BH124" s="9"/>
+      <c r="BI124" s="9"/>
+      <c r="BJ124" s="9"/>
+      <c r="BK124" s="9"/>
+      <c r="BL124" s="9"/>
+      <c r="BM124" s="9"/>
+      <c r="BN124" s="9"/>
+      <c r="BO124" s="9"/>
+      <c r="BP124" s="1"/>
+      <c r="BQ124" s="9"/>
+    </row>
+    <row r="125" spans="1:69" ht="16.5">
+      <c r="A125" s="3">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="B125" s="8">
+        <v>16000123</v>
+      </c>
+      <c r="C125" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D125" s="14">
+        <v>3</v>
+      </c>
+      <c r="E125" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F125" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G125" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H125" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="12"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+      <c r="O125" s="1"/>
+      <c r="P125" s="1"/>
+      <c r="Q125" s="1"/>
+      <c r="R125" s="1"/>
+      <c r="S125" s="1"/>
+      <c r="T125" s="1"/>
+      <c r="U125" s="1"/>
+      <c r="V125" s="1"/>
+      <c r="W125" s="1"/>
+      <c r="X125" s="1"/>
+      <c r="Y125" s="1"/>
+      <c r="Z125" s="1"/>
+      <c r="AA125" s="1"/>
+      <c r="AB125" s="1"/>
+      <c r="AC125" s="1"/>
+      <c r="AD125" s="1"/>
+      <c r="AE125" s="1"/>
+      <c r="AF125" s="1"/>
+      <c r="AG125" s="1"/>
+      <c r="AH125" s="1"/>
+      <c r="AI125" s="1"/>
+      <c r="AJ125" s="1"/>
+      <c r="AK125" s="1"/>
+      <c r="AL125" s="1"/>
+      <c r="AM125" s="1"/>
+      <c r="AN125" s="1"/>
+      <c r="AO125" s="1"/>
+      <c r="AP125" s="1"/>
+      <c r="AQ125" s="1"/>
+      <c r="AR125" s="1"/>
+      <c r="AS125" s="1"/>
+      <c r="AT125" s="1"/>
+      <c r="AU125" s="1"/>
+      <c r="AV125" s="1"/>
+      <c r="AW125" s="1"/>
+      <c r="AX125" s="1"/>
+      <c r="AY125" s="1"/>
+      <c r="AZ125" s="9"/>
+      <c r="BA125" s="9"/>
+      <c r="BB125" s="9"/>
+      <c r="BC125" s="9"/>
+      <c r="BD125" s="9"/>
+      <c r="BE125" s="9"/>
+      <c r="BF125" s="9"/>
+      <c r="BG125" s="9"/>
+      <c r="BH125" s="9"/>
+      <c r="BI125" s="9"/>
+      <c r="BJ125" s="9"/>
+      <c r="BK125" s="9"/>
+      <c r="BL125" s="9"/>
+      <c r="BM125" s="9"/>
+      <c r="BN125" s="9"/>
+      <c r="BO125" s="9"/>
+      <c r="BP125" s="1"/>
+      <c r="BQ125" s="9"/>
+    </row>
+    <row r="126" spans="1:69" ht="16.5">
+      <c r="A126" s="3">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="B126" s="8">
+        <v>16000124</v>
+      </c>
+      <c r="C126" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D126" s="14">
+        <v>4</v>
+      </c>
+      <c r="E126" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F126" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G126" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H126" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="12"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+      <c r="O126" s="1"/>
+      <c r="P126" s="1"/>
+      <c r="Q126" s="1"/>
+      <c r="R126" s="1"/>
+      <c r="S126" s="1"/>
+      <c r="T126" s="1"/>
+      <c r="U126" s="1"/>
+      <c r="V126" s="1"/>
+      <c r="W126" s="1"/>
+      <c r="X126" s="1"/>
+      <c r="Y126" s="1"/>
+      <c r="Z126" s="1"/>
+      <c r="AA126" s="1"/>
+      <c r="AB126" s="1"/>
+      <c r="AC126" s="1"/>
+      <c r="AD126" s="1"/>
+      <c r="AE126" s="1"/>
+      <c r="AF126" s="1"/>
+      <c r="AG126" s="1"/>
+      <c r="AH126" s="1"/>
+      <c r="AI126" s="1"/>
+      <c r="AJ126" s="1"/>
+      <c r="AK126" s="1"/>
+      <c r="AL126" s="1"/>
+      <c r="AM126" s="1"/>
+      <c r="AN126" s="1"/>
+      <c r="AO126" s="1"/>
+      <c r="AP126" s="1"/>
+      <c r="AQ126" s="1"/>
+      <c r="AR126" s="1"/>
+      <c r="AS126" s="1"/>
+      <c r="AT126" s="1"/>
+      <c r="AU126" s="1"/>
+      <c r="AV126" s="1"/>
+      <c r="AW126" s="1"/>
+      <c r="AX126" s="1"/>
+      <c r="AY126" s="1"/>
+      <c r="AZ126" s="9"/>
+      <c r="BA126" s="9"/>
+      <c r="BB126" s="9"/>
+      <c r="BC126" s="9"/>
+      <c r="BD126" s="9"/>
+      <c r="BE126" s="9"/>
+      <c r="BF126" s="9"/>
+      <c r="BG126" s="9"/>
+      <c r="BH126" s="9"/>
+      <c r="BI126" s="9"/>
+      <c r="BJ126" s="9"/>
+      <c r="BK126" s="9"/>
+      <c r="BL126" s="9"/>
+      <c r="BM126" s="9"/>
+      <c r="BN126" s="9"/>
+      <c r="BO126" s="9"/>
+      <c r="BP126" s="1"/>
+      <c r="BQ126" s="9"/>
+    </row>
+    <row r="127" spans="1:69" ht="16.5">
+      <c r="A127" s="3">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="B127" s="8">
+        <v>16000125</v>
+      </c>
+      <c r="C127" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D127" s="14">
+        <v>5</v>
+      </c>
+      <c r="E127" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F127" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G127" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H127" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="12"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+      <c r="O127" s="1"/>
+      <c r="P127" s="1"/>
+      <c r="Q127" s="1"/>
+      <c r="R127" s="1"/>
+      <c r="S127" s="1"/>
+      <c r="T127" s="1"/>
+      <c r="U127" s="1"/>
+      <c r="V127" s="1"/>
+      <c r="W127" s="1"/>
+      <c r="X127" s="1"/>
+      <c r="Y127" s="1"/>
+      <c r="Z127" s="1"/>
+      <c r="AA127" s="1"/>
+      <c r="AB127" s="1"/>
+      <c r="AC127" s="1"/>
+      <c r="AD127" s="1"/>
+      <c r="AE127" s="1"/>
+      <c r="AF127" s="1"/>
+      <c r="AG127" s="1"/>
+      <c r="AH127" s="1"/>
+      <c r="AI127" s="1"/>
+      <c r="AJ127" s="1"/>
+      <c r="AK127" s="1"/>
+      <c r="AL127" s="1"/>
+      <c r="AM127" s="1"/>
+      <c r="AN127" s="1"/>
+      <c r="AO127" s="1"/>
+      <c r="AP127" s="1"/>
+      <c r="AQ127" s="1"/>
+      <c r="AR127" s="1"/>
+      <c r="AS127" s="1"/>
+      <c r="AT127" s="1"/>
+      <c r="AU127" s="1"/>
+      <c r="AV127" s="1"/>
+      <c r="AW127" s="1"/>
+      <c r="AX127" s="1"/>
+      <c r="AY127" s="1"/>
+      <c r="AZ127" s="9"/>
+      <c r="BA127" s="9"/>
+      <c r="BB127" s="9"/>
+      <c r="BC127" s="9"/>
+      <c r="BD127" s="9"/>
+      <c r="BE127" s="9"/>
+      <c r="BF127" s="9"/>
+      <c r="BG127" s="9"/>
+      <c r="BH127" s="9"/>
+      <c r="BI127" s="9"/>
+      <c r="BJ127" s="9"/>
+      <c r="BK127" s="9"/>
+      <c r="BL127" s="9"/>
+      <c r="BM127" s="9"/>
+      <c r="BN127" s="9"/>
+      <c r="BO127" s="9"/>
+      <c r="BP127" s="1"/>
+      <c r="BQ127" s="9"/>
+    </row>
+    <row r="128" spans="1:69" ht="16.5">
+      <c r="A128" s="3">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="B128" s="8">
+        <v>16000126</v>
+      </c>
+      <c r="C128" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D128" s="14">
+        <v>6</v>
+      </c>
+      <c r="E128" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F128" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G128" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H128" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="12"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+      <c r="O128" s="1"/>
+      <c r="P128" s="1"/>
+      <c r="Q128" s="1"/>
+      <c r="R128" s="1"/>
+      <c r="S128" s="1"/>
+      <c r="T128" s="1"/>
+      <c r="U128" s="1"/>
+      <c r="V128" s="1"/>
+      <c r="W128" s="1"/>
+      <c r="X128" s="1"/>
+      <c r="Y128" s="1"/>
+      <c r="Z128" s="1"/>
+      <c r="AA128" s="1"/>
+      <c r="AB128" s="1"/>
+      <c r="AC128" s="1"/>
+      <c r="AD128" s="1"/>
+      <c r="AE128" s="1"/>
+      <c r="AF128" s="1"/>
+      <c r="AG128" s="1"/>
+      <c r="AH128" s="1"/>
+      <c r="AI128" s="1"/>
+      <c r="AJ128" s="1"/>
+      <c r="AK128" s="1"/>
+      <c r="AL128" s="1"/>
+      <c r="AM128" s="1"/>
+      <c r="AN128" s="1"/>
+      <c r="AO128" s="1"/>
+      <c r="AP128" s="1"/>
+      <c r="AQ128" s="1"/>
+      <c r="AR128" s="1"/>
+      <c r="AS128" s="1"/>
+      <c r="AT128" s="1"/>
+      <c r="AU128" s="1"/>
+      <c r="AV128" s="1"/>
+      <c r="AW128" s="1"/>
+      <c r="AX128" s="1"/>
+      <c r="AY128" s="1"/>
+      <c r="AZ128" s="9"/>
+      <c r="BA128" s="9"/>
+      <c r="BB128" s="9"/>
+      <c r="BC128" s="9"/>
+      <c r="BD128" s="9"/>
+      <c r="BE128" s="9"/>
+      <c r="BF128" s="9"/>
+      <c r="BG128" s="9"/>
+      <c r="BH128" s="9"/>
+      <c r="BI128" s="9"/>
+      <c r="BJ128" s="9"/>
+      <c r="BK128" s="9"/>
+      <c r="BL128" s="9"/>
+      <c r="BM128" s="9"/>
+      <c r="BN128" s="9"/>
+      <c r="BO128" s="9"/>
+      <c r="BP128" s="1"/>
+      <c r="BQ128" s="9"/>
+    </row>
+    <row r="129" spans="1:69" ht="16.5">
+      <c r="A129" s="3">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="B129" s="8">
+        <v>16000127</v>
+      </c>
+      <c r="C129" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D129" s="14">
+        <v>7</v>
+      </c>
+      <c r="E129" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F129" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G129" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H129" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="12"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+      <c r="O129" s="1"/>
+      <c r="P129" s="1"/>
+      <c r="Q129" s="1"/>
+      <c r="R129" s="1"/>
+      <c r="S129" s="1"/>
+      <c r="T129" s="1"/>
+      <c r="U129" s="1"/>
+      <c r="V129" s="1"/>
+      <c r="W129" s="1"/>
+      <c r="X129" s="1"/>
+      <c r="Y129" s="1"/>
+      <c r="Z129" s="1"/>
+      <c r="AA129" s="1"/>
+      <c r="AB129" s="1"/>
+      <c r="AC129" s="1"/>
+      <c r="AD129" s="1"/>
+      <c r="AE129" s="1"/>
+      <c r="AF129" s="1"/>
+      <c r="AG129" s="1"/>
+      <c r="AH129" s="1"/>
+      <c r="AI129" s="1"/>
+      <c r="AJ129" s="1"/>
+      <c r="AK129" s="1"/>
+      <c r="AL129" s="1"/>
+      <c r="AM129" s="1"/>
+      <c r="AN129" s="1"/>
+      <c r="AO129" s="1"/>
+      <c r="AP129" s="1"/>
+      <c r="AQ129" s="1"/>
+      <c r="AR129" s="1"/>
+      <c r="AS129" s="1"/>
+      <c r="AT129" s="1"/>
+      <c r="AU129" s="1"/>
+      <c r="AV129" s="1"/>
+      <c r="AW129" s="1"/>
+      <c r="AX129" s="1"/>
+      <c r="AY129" s="1"/>
+      <c r="AZ129" s="9"/>
+      <c r="BA129" s="9"/>
+      <c r="BB129" s="9"/>
+      <c r="BC129" s="9"/>
+      <c r="BD129" s="9"/>
+      <c r="BE129" s="9"/>
+      <c r="BF129" s="9"/>
+      <c r="BG129" s="9"/>
+      <c r="BH129" s="9"/>
+      <c r="BI129" s="9"/>
+      <c r="BJ129" s="9"/>
+      <c r="BK129" s="9"/>
+      <c r="BL129" s="9"/>
+      <c r="BM129" s="9"/>
+      <c r="BN129" s="9"/>
+      <c r="BO129" s="9"/>
+      <c r="BP129" s="1"/>
+      <c r="BQ129" s="9"/>
+    </row>
+    <row r="130" spans="1:69" ht="16.5">
+      <c r="A130" s="3">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="B130" s="8">
+        <v>16000128</v>
+      </c>
+      <c r="C130" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D130" s="14">
+        <v>8</v>
+      </c>
+      <c r="E130" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F130" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G130" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H130" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="12"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+      <c r="O130" s="1"/>
+      <c r="P130" s="1"/>
+      <c r="Q130" s="1"/>
+      <c r="R130" s="1"/>
+      <c r="S130" s="1"/>
+      <c r="T130" s="1"/>
+      <c r="U130" s="1"/>
+      <c r="V130" s="1"/>
+      <c r="W130" s="1"/>
+      <c r="X130" s="1"/>
+      <c r="Y130" s="1"/>
+      <c r="Z130" s="1"/>
+      <c r="AA130" s="1"/>
+      <c r="AB130" s="1"/>
+      <c r="AC130" s="1"/>
+      <c r="AD130" s="1"/>
+      <c r="AE130" s="1"/>
+      <c r="AF130" s="1"/>
+      <c r="AG130" s="1"/>
+      <c r="AH130" s="1"/>
+      <c r="AI130" s="1"/>
+      <c r="AJ130" s="1"/>
+      <c r="AK130" s="1"/>
+      <c r="AL130" s="1"/>
+      <c r="AM130" s="1"/>
+      <c r="AN130" s="1"/>
+      <c r="AO130" s="1"/>
+      <c r="AP130" s="1"/>
+      <c r="AQ130" s="1"/>
+      <c r="AR130" s="1"/>
+      <c r="AS130" s="1"/>
+      <c r="AT130" s="1"/>
+      <c r="AU130" s="1"/>
+      <c r="AV130" s="1"/>
+      <c r="AW130" s="1"/>
+      <c r="AX130" s="1"/>
+      <c r="AY130" s="1"/>
+      <c r="AZ130" s="9"/>
+      <c r="BA130" s="9"/>
+      <c r="BB130" s="9"/>
+      <c r="BC130" s="9"/>
+      <c r="BD130" s="9"/>
+      <c r="BE130" s="9"/>
+      <c r="BF130" s="9"/>
+      <c r="BG130" s="9"/>
+      <c r="BH130" s="9"/>
+      <c r="BI130" s="9"/>
+      <c r="BJ130" s="9"/>
+      <c r="BK130" s="9"/>
+      <c r="BL130" s="9"/>
+      <c r="BM130" s="9"/>
+      <c r="BN130" s="9"/>
+      <c r="BO130" s="9"/>
+      <c r="BP130" s="1"/>
+      <c r="BQ130" s="9"/>
+    </row>
+    <row r="131" spans="1:69" ht="16.5">
+      <c r="A131" s="3">
+        <f t="shared" ref="A131:A137" si="2">ROW()-2</f>
+        <v>129</v>
+      </c>
+      <c r="B131" s="8">
+        <v>16000129</v>
+      </c>
+      <c r="C131" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D131" s="14">
+        <v>9</v>
+      </c>
+      <c r="E131" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F131" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G131" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H131" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="12"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+      <c r="O131" s="1"/>
+      <c r="P131" s="1"/>
+      <c r="Q131" s="1"/>
+      <c r="R131" s="1"/>
+      <c r="S131" s="1"/>
+      <c r="T131" s="1"/>
+      <c r="U131" s="1"/>
+      <c r="V131" s="1"/>
+      <c r="W131" s="1"/>
+      <c r="X131" s="1"/>
+      <c r="Y131" s="1"/>
+      <c r="Z131" s="1"/>
+      <c r="AA131" s="1"/>
+      <c r="AB131" s="1"/>
+      <c r="AC131" s="1"/>
+      <c r="AD131" s="1"/>
+      <c r="AE131" s="1"/>
+      <c r="AF131" s="1"/>
+      <c r="AG131" s="1"/>
+      <c r="AH131" s="1"/>
+      <c r="AI131" s="1"/>
+      <c r="AJ131" s="1"/>
+      <c r="AK131" s="1"/>
+      <c r="AL131" s="1"/>
+      <c r="AM131" s="1"/>
+      <c r="AN131" s="1"/>
+      <c r="AO131" s="1"/>
+      <c r="AP131" s="1"/>
+      <c r="AQ131" s="1"/>
+      <c r="AR131" s="1"/>
+      <c r="AS131" s="1"/>
+      <c r="AT131" s="1"/>
+      <c r="AU131" s="1"/>
+      <c r="AV131" s="1"/>
+      <c r="AW131" s="1"/>
+      <c r="AX131" s="1"/>
+      <c r="AY131" s="1"/>
+      <c r="AZ131" s="9"/>
+      <c r="BA131" s="9"/>
+      <c r="BB131" s="9"/>
+      <c r="BC131" s="9"/>
+      <c r="BD131" s="9"/>
+      <c r="BE131" s="9"/>
+      <c r="BF131" s="9"/>
+      <c r="BG131" s="9"/>
+      <c r="BH131" s="9"/>
+      <c r="BI131" s="9"/>
+      <c r="BJ131" s="9"/>
+      <c r="BK131" s="9"/>
+      <c r="BL131" s="9"/>
+      <c r="BM131" s="9"/>
+      <c r="BN131" s="9"/>
+      <c r="BO131" s="9"/>
+      <c r="BP131" s="1"/>
+      <c r="BQ131" s="9"/>
+    </row>
+    <row r="132" spans="1:69" ht="16.5">
+      <c r="A132" s="3">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="B132" s="8">
+        <v>16000130</v>
+      </c>
+      <c r="C132" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D132" s="14">
+        <v>10</v>
+      </c>
+      <c r="E132" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F132" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G132" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H132" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+      <c r="K132" s="12"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+      <c r="O132" s="1"/>
+      <c r="P132" s="1"/>
+      <c r="Q132" s="1"/>
+      <c r="R132" s="1"/>
+      <c r="S132" s="1"/>
+      <c r="T132" s="1"/>
+      <c r="U132" s="1"/>
+      <c r="V132" s="1"/>
+      <c r="W132" s="1"/>
+      <c r="X132" s="1"/>
+      <c r="Y132" s="1"/>
+      <c r="Z132" s="1"/>
+      <c r="AA132" s="1"/>
+      <c r="AB132" s="1"/>
+      <c r="AC132" s="1"/>
+      <c r="AD132" s="1"/>
+      <c r="AE132" s="1"/>
+      <c r="AF132" s="1"/>
+      <c r="AG132" s="1"/>
+      <c r="AH132" s="1"/>
+      <c r="AI132" s="1"/>
+      <c r="AJ132" s="1"/>
+      <c r="AK132" s="1"/>
+      <c r="AL132" s="1"/>
+      <c r="AM132" s="1"/>
+      <c r="AN132" s="1"/>
+      <c r="AO132" s="1"/>
+      <c r="AP132" s="1"/>
+      <c r="AQ132" s="1"/>
+      <c r="AR132" s="1"/>
+      <c r="AS132" s="1"/>
+      <c r="AT132" s="1"/>
+      <c r="AU132" s="1"/>
+      <c r="AV132" s="1"/>
+      <c r="AW132" s="1"/>
+      <c r="AX132" s="1"/>
+      <c r="AY132" s="1"/>
+      <c r="AZ132" s="9"/>
+      <c r="BA132" s="9"/>
+      <c r="BB132" s="9"/>
+      <c r="BC132" s="9"/>
+      <c r="BD132" s="9"/>
+      <c r="BE132" s="9"/>
+      <c r="BF132" s="9"/>
+      <c r="BG132" s="9"/>
+      <c r="BH132" s="9"/>
+      <c r="BI132" s="9"/>
+      <c r="BJ132" s="9"/>
+      <c r="BK132" s="9"/>
+      <c r="BL132" s="9"/>
+      <c r="BM132" s="9"/>
+      <c r="BN132" s="9"/>
+      <c r="BO132" s="9"/>
+      <c r="BP132" s="1"/>
+      <c r="BQ132" s="9"/>
+    </row>
+    <row r="133" spans="1:69" ht="16.5">
+      <c r="A133" s="3">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
+      <c r="B133" s="8">
+        <v>16000131</v>
+      </c>
+      <c r="C133" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D133" s="14">
+        <v>11</v>
+      </c>
+      <c r="E133" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F133" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G133" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H133" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="12"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+      <c r="O133" s="1"/>
+      <c r="P133" s="1"/>
+      <c r="Q133" s="1"/>
+      <c r="R133" s="1"/>
+      <c r="S133" s="1"/>
+      <c r="T133" s="1"/>
+      <c r="U133" s="1"/>
+      <c r="V133" s="1"/>
+      <c r="W133" s="1"/>
+      <c r="X133" s="1"/>
+      <c r="Y133" s="1"/>
+      <c r="Z133" s="1"/>
+      <c r="AA133" s="1"/>
+      <c r="AB133" s="1"/>
+      <c r="AC133" s="1"/>
+      <c r="AD133" s="1"/>
+      <c r="AE133" s="1"/>
+      <c r="AF133" s="1"/>
+      <c r="AG133" s="1"/>
+      <c r="AH133" s="1"/>
+      <c r="AI133" s="1"/>
+      <c r="AJ133" s="1"/>
+      <c r="AK133" s="1"/>
+      <c r="AL133" s="1"/>
+      <c r="AM133" s="1"/>
+      <c r="AN133" s="1"/>
+      <c r="AO133" s="1"/>
+      <c r="AP133" s="1"/>
+      <c r="AQ133" s="1"/>
+      <c r="AR133" s="1"/>
+      <c r="AS133" s="1"/>
+      <c r="AT133" s="1"/>
+      <c r="AU133" s="1"/>
+      <c r="AV133" s="1"/>
+      <c r="AW133" s="1"/>
+      <c r="AX133" s="1"/>
+      <c r="AY133" s="1"/>
+      <c r="AZ133" s="9"/>
+      <c r="BA133" s="9"/>
+      <c r="BB133" s="9"/>
+      <c r="BC133" s="9"/>
+      <c r="BD133" s="9"/>
+      <c r="BE133" s="9"/>
+      <c r="BF133" s="9"/>
+      <c r="BG133" s="9"/>
+      <c r="BH133" s="9"/>
+      <c r="BI133" s="9"/>
+      <c r="BJ133" s="9"/>
+      <c r="BK133" s="9"/>
+      <c r="BL133" s="9"/>
+      <c r="BM133" s="9"/>
+      <c r="BN133" s="9"/>
+      <c r="BO133" s="9"/>
+      <c r="BP133" s="1"/>
+      <c r="BQ133" s="9"/>
+    </row>
+    <row r="134" spans="1:69" ht="16.5">
+      <c r="A134" s="3">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="B134" s="8">
+        <v>16000132</v>
+      </c>
+      <c r="C134" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D134" s="14">
+        <v>12</v>
+      </c>
+      <c r="E134" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F134" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G134" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H134" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="12"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+      <c r="O134" s="1"/>
+      <c r="P134" s="1"/>
+      <c r="Q134" s="1"/>
+      <c r="R134" s="1"/>
+      <c r="S134" s="1"/>
+      <c r="T134" s="1"/>
+      <c r="U134" s="1"/>
+      <c r="V134" s="1"/>
+      <c r="W134" s="1"/>
+      <c r="X134" s="1"/>
+      <c r="Y134" s="1"/>
+      <c r="Z134" s="1"/>
+      <c r="AA134" s="1"/>
+      <c r="AB134" s="1"/>
+      <c r="AC134" s="1"/>
+      <c r="AD134" s="1"/>
+      <c r="AE134" s="1"/>
+      <c r="AF134" s="1"/>
+      <c r="AG134" s="1"/>
+      <c r="AH134" s="1"/>
+      <c r="AI134" s="1"/>
+      <c r="AJ134" s="1"/>
+      <c r="AK134" s="1"/>
+      <c r="AL134" s="1"/>
+      <c r="AM134" s="1"/>
+      <c r="AN134" s="1"/>
+      <c r="AO134" s="1"/>
+      <c r="AP134" s="1"/>
+      <c r="AQ134" s="1"/>
+      <c r="AR134" s="1"/>
+      <c r="AS134" s="1"/>
+      <c r="AT134" s="1"/>
+      <c r="AU134" s="1"/>
+      <c r="AV134" s="1"/>
+      <c r="AW134" s="1"/>
+      <c r="AX134" s="1"/>
+      <c r="AY134" s="1"/>
+      <c r="AZ134" s="9"/>
+      <c r="BA134" s="9"/>
+      <c r="BB134" s="9"/>
+      <c r="BC134" s="9"/>
+      <c r="BD134" s="9"/>
+      <c r="BE134" s="9"/>
+      <c r="BF134" s="9"/>
+      <c r="BG134" s="9"/>
+      <c r="BH134" s="9"/>
+      <c r="BI134" s="9"/>
+      <c r="BJ134" s="9"/>
+      <c r="BK134" s="9"/>
+      <c r="BL134" s="9"/>
+      <c r="BM134" s="9"/>
+      <c r="BN134" s="9"/>
+      <c r="BO134" s="9"/>
+      <c r="BP134" s="1"/>
+      <c r="BQ134" s="9"/>
+    </row>
+    <row r="135" spans="1:69" ht="16.5">
+      <c r="A135" s="3">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="B135" s="8">
+        <v>16000133</v>
+      </c>
+      <c r="C135" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D135" s="14">
+        <v>13</v>
+      </c>
+      <c r="E135" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F135" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G135" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H135" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="12"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+      <c r="N135" s="1"/>
+      <c r="O135" s="1"/>
+      <c r="P135" s="1"/>
+      <c r="Q135" s="1"/>
+      <c r="R135" s="1"/>
+      <c r="S135" s="1"/>
+      <c r="T135" s="1"/>
+      <c r="U135" s="1"/>
+      <c r="V135" s="1"/>
+      <c r="W135" s="1"/>
+      <c r="X135" s="1"/>
+      <c r="Y135" s="1"/>
+      <c r="Z135" s="1"/>
+      <c r="AA135" s="1"/>
+      <c r="AB135" s="1"/>
+      <c r="AC135" s="1"/>
+      <c r="AD135" s="1"/>
+      <c r="AE135" s="1"/>
+      <c r="AF135" s="1"/>
+      <c r="AG135" s="1"/>
+      <c r="AH135" s="1"/>
+      <c r="AI135" s="1"/>
+      <c r="AJ135" s="1"/>
+      <c r="AK135" s="1"/>
+      <c r="AL135" s="1"/>
+      <c r="AM135" s="1"/>
+      <c r="AN135" s="1"/>
+      <c r="AO135" s="1"/>
+      <c r="AP135" s="1"/>
+      <c r="AQ135" s="1"/>
+      <c r="AR135" s="1"/>
+      <c r="AS135" s="1"/>
+      <c r="AT135" s="1"/>
+      <c r="AU135" s="1"/>
+      <c r="AV135" s="1"/>
+      <c r="AW135" s="1"/>
+      <c r="AX135" s="1"/>
+      <c r="AY135" s="1"/>
+      <c r="AZ135" s="9"/>
+      <c r="BA135" s="9"/>
+      <c r="BB135" s="9"/>
+      <c r="BC135" s="9"/>
+      <c r="BD135" s="9"/>
+      <c r="BE135" s="9"/>
+      <c r="BF135" s="9"/>
+      <c r="BG135" s="9"/>
+      <c r="BH135" s="9"/>
+      <c r="BI135" s="9"/>
+      <c r="BJ135" s="9"/>
+      <c r="BK135" s="9"/>
+      <c r="BL135" s="9"/>
+      <c r="BM135" s="9"/>
+      <c r="BN135" s="9"/>
+      <c r="BO135" s="9"/>
+      <c r="BP135" s="1"/>
+      <c r="BQ135" s="9"/>
+    </row>
+    <row r="136" spans="1:69" ht="16.5">
+      <c r="A136" s="3">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+      <c r="B136" s="8">
+        <v>16000134</v>
+      </c>
+      <c r="C136" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D136" s="14">
+        <v>14</v>
+      </c>
+      <c r="E136" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F136" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G136" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H136" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+      <c r="K136" s="12"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+      <c r="O136" s="1"/>
+      <c r="P136" s="1"/>
+      <c r="Q136" s="1"/>
+      <c r="R136" s="1"/>
+      <c r="S136" s="1"/>
+      <c r="T136" s="1"/>
+      <c r="U136" s="1"/>
+      <c r="V136" s="1"/>
+      <c r="W136" s="1"/>
+      <c r="X136" s="1"/>
+      <c r="Y136" s="1"/>
+      <c r="Z136" s="1"/>
+      <c r="AA136" s="1"/>
+      <c r="AB136" s="1"/>
+      <c r="AC136" s="1"/>
+      <c r="AD136" s="1"/>
+      <c r="AE136" s="1"/>
+      <c r="AF136" s="1"/>
+      <c r="AG136" s="1"/>
+      <c r="AH136" s="1"/>
+      <c r="AI136" s="1"/>
+      <c r="AJ136" s="1"/>
+      <c r="AK136" s="1"/>
+      <c r="AL136" s="1"/>
+      <c r="AM136" s="1"/>
+      <c r="AN136" s="1"/>
+      <c r="AO136" s="1"/>
+      <c r="AP136" s="1"/>
+      <c r="AQ136" s="1"/>
+      <c r="AR136" s="1"/>
+      <c r="AS136" s="1"/>
+      <c r="AT136" s="1"/>
+      <c r="AU136" s="1"/>
+      <c r="AV136" s="1"/>
+      <c r="AW136" s="1"/>
+      <c r="AX136" s="1"/>
+      <c r="AY136" s="1"/>
+      <c r="AZ136" s="9"/>
+      <c r="BA136" s="9"/>
+      <c r="BB136" s="9"/>
+      <c r="BC136" s="9"/>
+      <c r="BD136" s="9"/>
+      <c r="BE136" s="9"/>
+      <c r="BF136" s="9"/>
+      <c r="BG136" s="9"/>
+      <c r="BH136" s="9"/>
+      <c r="BI136" s="9"/>
+      <c r="BJ136" s="9"/>
+      <c r="BK136" s="9"/>
+      <c r="BL136" s="9"/>
+      <c r="BM136" s="9"/>
+      <c r="BN136" s="9"/>
+      <c r="BO136" s="9"/>
+      <c r="BP136" s="1"/>
+      <c r="BQ136" s="9"/>
+    </row>
+    <row r="137" spans="1:69" ht="16.5">
+      <c r="A137" s="3">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="B137" s="8">
+        <v>16000135</v>
+      </c>
+      <c r="C137" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D137" s="14">
+        <v>15</v>
+      </c>
+      <c r="E137" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F137" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G137" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H137" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="12"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+      <c r="O137" s="1"/>
+      <c r="P137" s="1"/>
+      <c r="Q137" s="1"/>
+      <c r="R137" s="1"/>
+      <c r="S137" s="1"/>
+      <c r="T137" s="1"/>
+      <c r="U137" s="1"/>
+      <c r="V137" s="1"/>
+      <c r="W137" s="1"/>
+      <c r="X137" s="1"/>
+      <c r="Y137" s="1"/>
+      <c r="Z137" s="1"/>
+      <c r="AA137" s="1"/>
+      <c r="AB137" s="1"/>
+      <c r="AC137" s="1"/>
+      <c r="AD137" s="1"/>
+      <c r="AE137" s="1"/>
+      <c r="AF137" s="1"/>
+      <c r="AG137" s="1"/>
+      <c r="AH137" s="1"/>
+      <c r="AI137" s="1"/>
+      <c r="AJ137" s="1"/>
+      <c r="AK137" s="1"/>
+      <c r="AL137" s="1"/>
+      <c r="AM137" s="1"/>
+      <c r="AN137" s="1"/>
+      <c r="AO137" s="1"/>
+      <c r="AP137" s="1"/>
+      <c r="AQ137" s="1"/>
+      <c r="AR137" s="1"/>
+      <c r="AS137" s="1"/>
+      <c r="AT137" s="1"/>
+      <c r="AU137" s="1"/>
+      <c r="AV137" s="1"/>
+      <c r="AW137" s="1"/>
+      <c r="AX137" s="1"/>
+      <c r="AY137" s="1"/>
+      <c r="AZ137" s="9"/>
+      <c r="BA137" s="9"/>
+      <c r="BB137" s="9"/>
+      <c r="BC137" s="9"/>
+      <c r="BD137" s="9"/>
+      <c r="BE137" s="9"/>
+      <c r="BF137" s="9"/>
+      <c r="BG137" s="9"/>
+      <c r="BH137" s="9"/>
+      <c r="BI137" s="9"/>
+      <c r="BJ137" s="9"/>
+      <c r="BK137" s="9"/>
+      <c r="BL137" s="9"/>
+      <c r="BM137" s="9"/>
+      <c r="BN137" s="9"/>
+      <c r="BO137" s="9"/>
+      <c r="BP137" s="1"/>
+      <c r="BQ137" s="9"/>
+    </row>
+    <row r="138" spans="1:69" ht="16.5">
+      <c r="A138" s="3"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="15"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="15"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+      <c r="K138" s="12"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
+      <c r="O138" s="1"/>
+      <c r="P138" s="1"/>
+      <c r="Q138" s="1"/>
+      <c r="R138" s="1"/>
+      <c r="S138" s="1"/>
+      <c r="T138" s="1"/>
+      <c r="U138" s="1"/>
+      <c r="V138" s="1"/>
+      <c r="W138" s="1"/>
+      <c r="X138" s="1"/>
+      <c r="Y138" s="1"/>
+      <c r="Z138" s="1"/>
+      <c r="AA138" s="1"/>
+      <c r="AB138" s="1"/>
+      <c r="AC138" s="1"/>
+      <c r="AD138" s="1"/>
+      <c r="AE138" s="1"/>
+      <c r="AF138" s="1"/>
+      <c r="AG138" s="1"/>
+      <c r="AH138" s="1"/>
+      <c r="AI138" s="1"/>
+      <c r="AJ138" s="1"/>
+      <c r="AK138" s="1"/>
+      <c r="AL138" s="1"/>
+      <c r="AM138" s="1"/>
+      <c r="AN138" s="1"/>
+      <c r="AO138" s="1"/>
+      <c r="AP138" s="1"/>
+      <c r="AQ138" s="1"/>
+      <c r="AR138" s="1"/>
+      <c r="AS138" s="1"/>
+      <c r="AT138" s="1"/>
+      <c r="AU138" s="1"/>
+      <c r="AV138" s="1"/>
+      <c r="AW138" s="1"/>
+      <c r="AX138" s="1"/>
+      <c r="AY138" s="1"/>
+      <c r="AZ138" s="9"/>
+      <c r="BA138" s="9"/>
+      <c r="BB138" s="9"/>
+      <c r="BC138" s="9"/>
+      <c r="BD138" s="9"/>
+      <c r="BE138" s="9"/>
+      <c r="BF138" s="9"/>
+      <c r="BG138" s="9"/>
+      <c r="BH138" s="9"/>
+      <c r="BI138" s="9"/>
+      <c r="BJ138" s="9"/>
+      <c r="BK138" s="9"/>
+      <c r="BL138" s="9"/>
+      <c r="BM138" s="9"/>
+      <c r="BN138" s="9"/>
+      <c r="BO138" s="9"/>
+      <c r="BP138" s="1"/>
+      <c r="BQ138" s="9"/>
+    </row>
+    <row r="139" spans="1:69" ht="16.5">
+      <c r="A139" s="3"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="12"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+      <c r="N139" s="1"/>
+      <c r="O139" s="1"/>
+      <c r="P139" s="1"/>
+      <c r="Q139" s="1"/>
+      <c r="R139" s="1"/>
+      <c r="S139" s="1"/>
+      <c r="T139" s="1"/>
+      <c r="U139" s="1"/>
+      <c r="V139" s="1"/>
+      <c r="W139" s="1"/>
+      <c r="X139" s="1"/>
+      <c r="Y139" s="1"/>
+      <c r="Z139" s="1"/>
+      <c r="AA139" s="1"/>
+      <c r="AB139" s="1"/>
+      <c r="AC139" s="1"/>
+      <c r="AD139" s="1"/>
+      <c r="AE139" s="1"/>
+      <c r="AF139" s="1"/>
+      <c r="AG139" s="1"/>
+      <c r="AH139" s="1"/>
+      <c r="AI139" s="1"/>
+      <c r="AJ139" s="1"/>
+      <c r="AK139" s="1"/>
+      <c r="AL139" s="1"/>
+      <c r="AM139" s="1"/>
+      <c r="AN139" s="1"/>
+      <c r="AO139" s="1"/>
+      <c r="AP139" s="1"/>
+      <c r="AQ139" s="1"/>
+      <c r="AR139" s="1"/>
+      <c r="AS139" s="1"/>
+      <c r="AT139" s="1"/>
+      <c r="AU139" s="1"/>
+      <c r="AV139" s="1"/>
+      <c r="AW139" s="1"/>
+      <c r="AX139" s="1"/>
+      <c r="AY139" s="1"/>
+      <c r="AZ139" s="9"/>
+      <c r="BA139" s="9"/>
+      <c r="BB139" s="9"/>
+      <c r="BC139" s="9"/>
+      <c r="BD139" s="9"/>
+      <c r="BE139" s="9"/>
+      <c r="BF139" s="9"/>
+      <c r="BG139" s="9"/>
+      <c r="BH139" s="9"/>
+      <c r="BI139" s="9"/>
+      <c r="BJ139" s="9"/>
+      <c r="BK139" s="9"/>
+      <c r="BL139" s="9"/>
+      <c r="BM139" s="9"/>
+      <c r="BN139" s="9"/>
+      <c r="BO139" s="9"/>
+      <c r="BP139" s="1"/>
+      <c r="BQ139" s="9"/>
+    </row>
+    <row r="140" spans="1:69" ht="12.75" customHeight="1">
       <c r="B140" s="10"/>
     </row>
-    <row r="141" spans="2:2" ht="12.75" customHeight="1">
+    <row r="141" spans="1:69" ht="12.75" customHeight="1">
       <c r="B141" s="10"/>
     </row>
-    <row r="142" spans="2:2" ht="12.75" customHeight="1">
+    <row r="142" spans="1:69" ht="12.75" customHeight="1">
       <c r="B142" s="10"/>
     </row>
-    <row r="143" spans="2:2" ht="12.75" customHeight="1">
+    <row r="143" spans="1:69" ht="12.75" customHeight="1">
       <c r="B143" s="10"/>
     </row>
-    <row r="144" spans="2:2" ht="12.75" customHeight="1">
+    <row r="144" spans="1:69" ht="12.75" customHeight="1">
       <c r="B144" s="10"/>
     </row>
     <row r="145" spans="2:2" ht="12.75" customHeight="1">
